--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3675E-7D5B-2243-AFDA-942B5B39EF34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB34788-E81A-284E-93EE-2DF5448094BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="211">
   <si>
     <t>Tienda</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>Densidad</t>
+  </si>
+  <si>
+    <t>Miguel GUAPOOOO</t>
   </si>
 </sst>
 </file>
@@ -844,30 +847,30 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1187,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
   <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="CF4" sqref="CF4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,6 +1208,7 @@
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -1230,109 +1234,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="29"/>
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="Y1" s="23" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="Y1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AB1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="18" t="s">
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AL1" s="31" t="s">
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AL1" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AP1" s="20" t="s">
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AP1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AU1" s="23" t="s">
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AU1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AY1" s="25" t="s">
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AY1" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BE1" s="18" t="s">
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BE1" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BK1" s="31" t="s">
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BK1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BP1" s="20" t="s">
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BP1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BT1" s="23" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BT1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BX1" s="25" t="s">
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="25"/>
-      <c r="CC1" s="18" t="s">
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CC1" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1398,22 +1402,22 @@
       <c r="W2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="26" t="s">
+      <c r="AC2" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="21" t="s">
         <v>180</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1428,13 +1432,13 @@
       <c r="AJ2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="24" t="s">
         <v>187</v>
       </c>
       <c r="AP2" s="11" t="s">
@@ -1449,28 +1453,28 @@
       <c r="AS2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AU2" s="22" t="s">
+      <c r="AU2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="22" t="s">
+      <c r="AV2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AW2" s="22" t="s">
+      <c r="AW2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="AY2" s="26" t="s">
+      <c r="AY2" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="AZ2" s="26" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="26" t="s">
+      <c r="BA2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="26" t="s">
+      <c r="BC2" s="21" t="s">
         <v>194</v>
       </c>
       <c r="BE2" s="2" t="s">
@@ -1488,16 +1492,16 @@
       <c r="BI2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="24" t="s">
         <v>191</v>
       </c>
       <c r="BP2" s="11" t="s">
@@ -1509,25 +1513,25 @@
       <c r="BR2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BT2" s="22" t="s">
+      <c r="BT2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BU2" s="22" t="s">
+      <c r="BU2" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="BV2" s="22" t="s">
+      <c r="BV2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="BX2" s="26" t="s">
+      <c r="BX2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BY2" s="26" t="s">
+      <c r="BY2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="21" t="s">
         <v>206</v>
       </c>
       <c r="CC2" s="2" t="s">
@@ -1608,55 +1612,55 @@
       <c r="W3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="28"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
       <c r="BP3" s="12"/>
       <c r="BQ3" s="12"/>
       <c r="BR3" s="12"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BX3" s="27"/>
-      <c r="BY3" s="27"/>
-      <c r="BZ3" s="27"/>
-      <c r="CA3" s="27"/>
-      <c r="CC3" s="28"/>
-      <c r="CD3" s="28"/>
-      <c r="CE3" s="28"/>
-      <c r="CF3" s="28"/>
-      <c r="CG3" s="28"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="20"/>
+      <c r="BX3" s="22"/>
+      <c r="BY3" s="22"/>
+      <c r="BZ3" s="22"/>
+      <c r="CA3" s="22"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1782,6 +1786,9 @@
       </c>
       <c r="W5" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.2">
@@ -2573,6 +2580,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -2582,13 +2596,6 @@
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB34788-E81A-284E-93EE-2DF5448094BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B987205-36D2-5948-8A4E-1A20B8FD3081}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="210">
   <si>
     <t>Tienda</t>
   </si>
@@ -655,9 +655,6 @@
   </si>
   <si>
     <t>Densidad</t>
-  </si>
-  <si>
-    <t>Miguel GUAPOOOO</t>
   </si>
 </sst>
 </file>
@@ -855,12 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,6 +862,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
   <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,109 +1231,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="26" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="Y1" s="27" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="Y1" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AB1" s="28" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AB1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AL1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AP1" s="26" t="s">
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AP1" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AU1" s="27" t="s">
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AU1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AY1" s="28" t="s">
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AY1" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BE1" s="29" t="s">
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BE1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BK1" s="30" t="s">
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BK1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BP1" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BT1" s="27" t="s">
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BT1" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BX1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CC1" s="29" t="s">
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26"/>
+      <c r="CA1" s="26"/>
+      <c r="CC1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1578,7 +1575,9 @@
       <c r="K3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="M3" s="12" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1689,9 @@
       <c r="K4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="M4" s="13" t="s">
         <v>57</v>
       </c>
@@ -1753,7 +1754,9 @@
       <c r="K5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="M5" s="12" t="s">
         <v>41</v>
       </c>
@@ -1786,9 +1789,6 @@
       </c>
       <c r="W5" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,9 @@
       <c r="K6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="M6" s="12" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +1884,9 @@
       <c r="K7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>41</v>
       </c>
@@ -1939,7 +1943,9 @@
       <c r="K8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>73</v>
       </c>
@@ -1996,7 +2002,9 @@
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>73</v>
       </c>
@@ -2036,7 +2044,9 @@
       <c r="K10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="M10" s="12" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2085,9 @@
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>73</v>
       </c>
@@ -2114,7 +2126,9 @@
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>73</v>
       </c>
@@ -2153,7 +2167,9 @@
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>41</v>
       </c>
@@ -2192,7 +2208,9 @@
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="M14" s="12" t="s">
         <v>41</v>
       </c>
@@ -2231,7 +2249,9 @@
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>114</v>
       </c>
@@ -2270,7 +2290,9 @@
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>73</v>
       </c>
@@ -2309,7 +2331,9 @@
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M17" s="12" t="s">
         <v>41</v>
       </c>
@@ -2348,7 +2372,9 @@
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M18" s="12" t="s">
         <v>73</v>
       </c>
@@ -2387,7 +2413,9 @@
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M19" s="12" t="s">
         <v>139</v>
       </c>
@@ -2426,7 +2454,9 @@
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>41</v>
       </c>
@@ -2465,7 +2495,9 @@
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="M21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2536,9 @@
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="12"/>
+      <c r="L22" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="M22" s="12" t="s">
         <v>73</v>
       </c>
@@ -2543,7 +2577,9 @@
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="M23" s="12" t="s">
         <v>73</v>
       </c>
@@ -2580,13 +2616,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -2596,6 +2625,13 @@
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\SEGUNDO CURSO\4º CUATRIMESTRE\BASES DE DATOS\github\BBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B987205-36D2-5948-8A4E-1A20B8FD3081}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B06533C7-BA3F-492B-BE02-944C53EAE408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="210">
   <si>
     <t>Tienda</t>
   </si>
@@ -661,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,6 +676,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="20">
@@ -807,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -852,6 +858,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,15 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -889,7 +899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1187,155 +1197,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
   <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.625" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.83203125" customWidth="1"/>
+    <col min="39" max="39" width="12.875" customWidth="1"/>
     <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="16" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.875" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="30" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="Y1" s="31" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="Y1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AB1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AL1" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AP1" s="30" t="s">
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AP1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AU1" s="31" t="s">
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AU1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AY1" s="26" t="s">
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AY1" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BE1" s="27" t="s">
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BE1" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BK1" s="28" t="s">
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BK1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BP1" s="30" t="s">
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BP1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BT1" s="31" t="s">
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BT1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="BU1" s="31"/>
-      <c r="BV1" s="31"/>
-      <c r="BX1" s="26" t="s">
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BX1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CC1" s="27" t="s">
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CC1" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1611,8 +1621,12 @@
       <c r="W3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
+      <c r="Y3" s="32">
+        <v>6736308609</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -1661,7 +1675,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1725,8 +1739,14 @@
       <c r="W4" s="16" t="s">
         <v>47</v>
       </c>
+      <c r="Y4" s="32">
+        <v>8386273333</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1790,8 +1810,14 @@
       <c r="W5" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y5" s="32">
+        <v>8808967411</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1855,8 +1881,14 @@
       <c r="W6" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y6" s="32">
+        <v>7978364851</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1920,8 +1952,14 @@
       <c r="W7" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y7" s="32">
+        <v>8110515984</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -1979,8 +2017,14 @@
       <c r="W8" s="15" t="s">
         <v>107</v>
       </c>
+      <c r="Y8" s="32">
+        <v>8125519483</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2038,8 +2082,14 @@
       <c r="W9" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y9" s="32">
+        <v>7652234574</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -2080,8 +2130,14 @@
       <c r="W10" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y10" s="32">
+        <v>6514691429</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -2121,8 +2177,14 @@
       <c r="W11" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y11" s="32">
+        <v>8482022516</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -2162,8 +2224,14 @@
       <c r="W12" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y12" s="32">
+        <v>6855050038</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2203,8 +2271,14 @@
       <c r="W13" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y13" s="32">
+        <v>6250807264</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -2244,8 +2318,14 @@
       <c r="W14" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y14" s="32">
+        <v>6437966006</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -2285,8 +2365,14 @@
       <c r="W15" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y15" s="32">
+        <v>7415857148</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -2326,8 +2412,14 @@
       <c r="W16" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="Y16" s="32">
+        <v>6646871792</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="17" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -2367,8 +2459,14 @@
       <c r="W17" s="15" t="s">
         <v>3</v>
       </c>
+      <c r="Y17" s="32">
+        <v>7752334705</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -2408,8 +2506,14 @@
       <c r="W18" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="Y18" s="32">
+        <v>7768753059</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="19" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -2449,8 +2553,14 @@
       <c r="W19" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="Y19" s="32">
+        <v>7680024416</v>
+      </c>
+      <c r="Z19" s="20" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="20" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -2490,8 +2600,14 @@
       <c r="W20" s="15" t="s">
         <v>78</v>
       </c>
+      <c r="Y20" s="32">
+        <v>7305196599</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="21" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -2531,8 +2647,14 @@
       <c r="W21" s="15" t="s">
         <v>155</v>
       </c>
+      <c r="Y21" s="32">
+        <v>7822734752</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="22" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -2572,8 +2694,14 @@
       <c r="W22" s="15" t="s">
         <v>85</v>
       </c>
+      <c r="Y22" s="32">
+        <v>7743568674</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="23" spans="11:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:26" x14ac:dyDescent="0.25">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -2612,10 +2740,23 @@
       </c>
       <c r="W23" s="15" t="s">
         <v>85</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>7740076737</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -2625,13 +2766,6 @@
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
@@ -2657,7 +2791,7 @@
     <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <ignoredErrors>
     <ignoredError sqref="U16" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\SEGUNDO CURSO\4º CUATRIMESTRE\BASES DE DATOS\github\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B06533C7-BA3F-492B-BE02-944C53EAE408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F94D7A-71E1-5C4C-BBF6-3F0F78DFDA0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19425" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
   <si>
     <t>Tienda</t>
   </si>
@@ -655,6 +655,33 @@
   </si>
   <si>
     <t>Densidad</t>
+  </si>
+  <si>
+    <t>2x1</t>
+  </si>
+  <si>
+    <t>TODO 50%</t>
+  </si>
+  <si>
+    <t>BARRA PLUS 50cent</t>
+  </si>
+  <si>
+    <t>30 días</t>
+  </si>
+  <si>
+    <t>50 días</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>1010-08-06 15:16:14</t>
+  </si>
+  <si>
+    <t>2008-11-22 16:14:15</t>
+  </si>
+  <si>
+    <t>3000-03-15 14:15:16</t>
   </si>
 </sst>
 </file>
@@ -678,10 +705,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -813,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -858,12 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,13 +899,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,7 +928,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1197,155 +1226,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
   <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" customWidth="1"/>
     <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
+    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.875" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" customWidth="1"/>
     <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="16" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="D1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="26" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="Y1" s="27" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="Y1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AB1" s="28" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AB1" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AL1" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AP1" s="26" t="s">
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AP1" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AU1" s="27" t="s">
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AU1" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AY1" s="28" t="s">
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AY1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BE1" s="29" t="s">
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BE1" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BK1" s="30" t="s">
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BK1" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BP1" s="26" t="s">
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BP1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BT1" s="27" t="s">
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BT1" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BX1" s="28" t="s">
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BX1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CC1" s="29" t="s">
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="27"/>
+      <c r="CC1" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +1588,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1621,16 +1652,24 @@
       <c r="W3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="33">
         <v>6736308609</v>
       </c>
       <c r="Z3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
+      <c r="AB3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE3" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
@@ -1675,7 +1714,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1739,14 +1778,26 @@
       <c r="W4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="32">
+      <c r="Y4" s="33">
         <v>8386273333</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="AB4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE4" s="34" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1810,14 +1861,26 @@
       <c r="W5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="33">
         <v>8808967411</v>
       </c>
       <c r="Z5" s="20" t="s">
         <v>40</v>
       </c>
+      <c r="AB5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE5" s="34" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1881,14 +1944,14 @@
       <c r="W6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="33">
         <v>7978364851</v>
       </c>
       <c r="Z6" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1952,14 +2015,14 @@
       <c r="W7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="33">
         <v>8110515984</v>
       </c>
       <c r="Z7" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2017,14 +2080,14 @@
       <c r="W8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="33">
         <v>8125519483</v>
       </c>
       <c r="Z8" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2082,14 +2145,14 @@
       <c r="W9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="33">
         <v>7652234574</v>
       </c>
       <c r="Z9" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -2130,14 +2193,14 @@
       <c r="W10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="33">
         <v>6514691429</v>
       </c>
       <c r="Z10" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -2177,14 +2240,14 @@
       <c r="W11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="33">
         <v>8482022516</v>
       </c>
       <c r="Z11" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -2224,14 +2287,14 @@
       <c r="W12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="33">
         <v>6855050038</v>
       </c>
       <c r="Z12" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2271,14 +2334,14 @@
       <c r="W13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="33">
         <v>6250807264</v>
       </c>
       <c r="Z13" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -2318,14 +2381,14 @@
       <c r="W14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y14" s="32">
+      <c r="Y14" s="33">
         <v>6437966006</v>
       </c>
       <c r="Z14" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -2365,14 +2428,14 @@
       <c r="W15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="32">
+      <c r="Y15" s="33">
         <v>7415857148</v>
       </c>
       <c r="Z15" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -2412,14 +2475,14 @@
       <c r="W16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="32">
+      <c r="Y16" s="33">
         <v>6646871792</v>
       </c>
       <c r="Z16" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -2459,14 +2522,14 @@
       <c r="W17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="32">
+      <c r="Y17" s="33">
         <v>7752334705</v>
       </c>
       <c r="Z17" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -2506,14 +2569,14 @@
       <c r="W18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="32">
+      <c r="Y18" s="33">
         <v>7768753059</v>
       </c>
       <c r="Z18" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -2553,14 +2616,14 @@
       <c r="W19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" s="32">
+      <c r="Y19" s="33">
         <v>7680024416</v>
       </c>
       <c r="Z19" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -2600,14 +2663,14 @@
       <c r="W20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="32">
+      <c r="Y20" s="33">
         <v>7305196599</v>
       </c>
       <c r="Z20" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -2647,14 +2710,14 @@
       <c r="W21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="Y21" s="32">
+      <c r="Y21" s="33">
         <v>7822734752</v>
       </c>
       <c r="Z21" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -2694,14 +2757,14 @@
       <c r="W22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y22" s="32">
+      <c r="Y22" s="33">
         <v>7743568674</v>
       </c>
       <c r="Z22" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="11:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:26" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -2741,7 +2804,7 @@
       <c r="W23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="32">
+      <c r="Y23" s="33">
         <v>7740076737</v>
       </c>
       <c r="Z23" s="20" t="s">
@@ -2750,13 +2813,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BT1:BV1"/>
     <mergeCell ref="BX1:CA1"/>
@@ -2766,6 +2822,13 @@
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F94D7A-71E1-5C4C-BBF6-3F0F78DFDA0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD90CB0F-4F67-D74E-AF9C-B98DE6A5F818}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD90CB0F-4F67-D74E-AF9C-B98DE6A5F818}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B5906-DFE6-B640-BCEF-D81570875141}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
   <si>
     <t>Tienda</t>
   </si>
@@ -666,15 +666,6 @@
     <t>BARRA PLUS 50cent</t>
   </si>
   <si>
-    <t>30 días</t>
-  </si>
-  <si>
-    <t>50 días</t>
-  </si>
-  <si>
-    <t>2 días</t>
-  </si>
-  <si>
     <t>1010-08-06 15:16:14</t>
   </si>
   <si>
@@ -682,6 +673,66 @@
   </si>
   <si>
     <t>3000-03-15 14:15:16</t>
+  </si>
+  <si>
+    <t>El chuches</t>
+  </si>
+  <si>
+    <t>44150783Y</t>
+  </si>
+  <si>
+    <t>95551913T</t>
+  </si>
+  <si>
+    <t>61244769R</t>
+  </si>
+  <si>
+    <t>32491205W</t>
+  </si>
+  <si>
+    <t>48053069C</t>
+  </si>
+  <si>
+    <t>Tu gasolinero</t>
+  </si>
+  <si>
+    <t>La gran manguera</t>
+  </si>
+  <si>
+    <t>Mmmmm gasss</t>
+  </si>
+  <si>
+    <t>Pepe Castello</t>
+  </si>
+  <si>
+    <t>Luis Fuentes</t>
+  </si>
+  <si>
+    <t>Domingo Martes</t>
+  </si>
+  <si>
+    <t>Luisa Zaplana</t>
+  </si>
+  <si>
+    <t>Marta Izquierdo</t>
+  </si>
+  <si>
+    <t>qqq@hotmail.es</t>
+  </si>
+  <si>
+    <t>jisusesbien@gmail.com</t>
+  </si>
+  <si>
+    <t>vibaio@yahoo.org</t>
+  </si>
+  <si>
+    <t>errornotfound@gmail.net</t>
+  </si>
+  <si>
+    <t>micorreojajaxd@hotmail.es</t>
+  </si>
+  <si>
+    <t>Jordi ENP</t>
   </si>
 </sst>
 </file>
@@ -841,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -909,6 +960,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1226,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
   <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1309,10 @@
     <col min="47" max="47" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.5" customWidth="1"/>
+    <col min="52" max="52" width="14.6640625" customWidth="1"/>
+    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -1338,7 +1393,6 @@
       <c r="AZ1" s="27"/>
       <c r="BA1" s="27"/>
       <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
       <c r="BE1" s="28" t="s">
         <v>195</v>
       </c>
@@ -1512,9 +1566,6 @@
       <c r="BB2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="21" t="s">
-        <v>194</v>
-      </c>
       <c r="BE2" s="2" t="s">
         <v>191</v>
       </c>
@@ -1664,11 +1715,11 @@
       <c r="AC3" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="22">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="34" t="s">
         <v>215</v>
-      </c>
-      <c r="AE3" s="34" t="s">
-        <v>218</v>
       </c>
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
@@ -1684,11 +1735,18 @@
       <c r="AU3" s="20"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
+      <c r="AY3" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ3" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB3" s="35" t="s">
+        <v>230</v>
+      </c>
       <c r="BE3" s="23"/>
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
@@ -1790,11 +1848,23 @@
       <c r="AC4" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AD4" s="22" t="s">
-        <v>214</v>
+      <c r="AD4" s="22">
+        <v>50</v>
       </c>
       <c r="AE4" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="AY4" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA4" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB4" s="35" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.2">
@@ -1873,11 +1943,23 @@
       <c r="AC5" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AD5" s="22" t="s">
-        <v>213</v>
+      <c r="AD5" s="22">
+        <v>30</v>
       </c>
       <c r="AE5" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="AY5" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB5" s="35" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.2">
@@ -1950,6 +2032,18 @@
       <c r="Z6" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="AY6" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ6" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA6" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB6" s="35" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2020,6 +2114,18 @@
       </c>
       <c r="Z7" s="20" t="s">
         <v>112</v>
+      </c>
+      <c r="AY7" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA7" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB7" s="35" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.2">
@@ -2819,9 +2925,9 @@
     <mergeCell ref="CC1:CG1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AL1:AN1"/>
@@ -2852,9 +2958,14 @@
     <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
     <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
     <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
+    <hyperlink ref="BB3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
+    <hyperlink ref="BB4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
+    <hyperlink ref="BB5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
+    <hyperlink ref="BB6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
+    <hyperlink ref="BB7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
   <ignoredErrors>
     <ignoredError sqref="U16" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450B5906-DFE6-B640-BCEF-D81570875141}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8D404-9ACA-C54E-AED4-D75B0F6A99F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="299">
   <si>
     <t>Tienda</t>
   </si>
@@ -636,103 +636,292 @@
     <t>Número_de_surtidor</t>
   </si>
   <si>
+    <t>Número de surtidor</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Presión</t>
+  </si>
+  <si>
+    <t>Aislante</t>
+  </si>
+  <si>
+    <t>Densidad</t>
+  </si>
+  <si>
+    <t>2x1</t>
+  </si>
+  <si>
+    <t>TODO 50%</t>
+  </si>
+  <si>
+    <t>BARRA PLUS 50cent</t>
+  </si>
+  <si>
+    <t>1010-08-06 15:16:14</t>
+  </si>
+  <si>
+    <t>2008-11-22 16:14:15</t>
+  </si>
+  <si>
+    <t>3000-03-15 14:15:16</t>
+  </si>
+  <si>
+    <t>El chuches</t>
+  </si>
+  <si>
+    <t>44150783Y</t>
+  </si>
+  <si>
+    <t>95551913T</t>
+  </si>
+  <si>
+    <t>61244769R</t>
+  </si>
+  <si>
+    <t>32491205W</t>
+  </si>
+  <si>
+    <t>48053069C</t>
+  </si>
+  <si>
+    <t>Tu gasolinero</t>
+  </si>
+  <si>
+    <t>La gran manguera</t>
+  </si>
+  <si>
+    <t>Mmmmm gasss</t>
+  </si>
+  <si>
+    <t>Pepe Castello</t>
+  </si>
+  <si>
+    <t>Luis Fuentes</t>
+  </si>
+  <si>
+    <t>Domingo Martes</t>
+  </si>
+  <si>
+    <t>Luisa Zaplana</t>
+  </si>
+  <si>
+    <t>Marta Izquierdo</t>
+  </si>
+  <si>
+    <t>qqq@hotmail.es</t>
+  </si>
+  <si>
+    <t>jisusesbien@gmail.com</t>
+  </si>
+  <si>
+    <t>vibaio@yahoo.org</t>
+  </si>
+  <si>
+    <t>errornotfound@gmail.net</t>
+  </si>
+  <si>
+    <t>micorreojajaxd@hotmail.es</t>
+  </si>
+  <si>
+    <t>Jordi ENP</t>
+  </si>
+  <si>
+    <t>jha-sfe-aedw</t>
+  </si>
+  <si>
+    <t>Akn-3jn-NS9</t>
+  </si>
+  <si>
+    <t>hsi-JS7-js7y</t>
+  </si>
+  <si>
+    <t>hs8-pqw-H78</t>
+  </si>
+  <si>
+    <t>iKl-ks7-Jh0e</t>
+  </si>
+  <si>
+    <t>LM8-gsi-6tYd</t>
+  </si>
+  <si>
+    <t>bnc-mbU-OP87</t>
+  </si>
+  <si>
+    <t>bcy-JGH-98HJ</t>
+  </si>
+  <si>
+    <t>FAT-B66-CFu7</t>
+  </si>
+  <si>
+    <t>Ldp-fFh-203m</t>
+  </si>
+  <si>
+    <t>wef-rKM-dD93</t>
+  </si>
+  <si>
+    <t>2004-03-04 15:16:14</t>
+  </si>
+  <si>
+    <t>1789-12-19 17:11:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 10:13:15</t>
+  </si>
+  <si>
+    <t>1014-01-01 12:23:54</t>
+  </si>
+  <si>
+    <t>2045-02-22 19:38:48</t>
+  </si>
+  <si>
+    <t>2001-05-10 17:40:45</t>
+  </si>
+  <si>
+    <t>1004-02-23 19:58:19</t>
+  </si>
+  <si>
+    <t>2110-11-26 05:06:44</t>
+  </si>
+  <si>
+    <t>2010-08-27 22:16:46</t>
+  </si>
+  <si>
+    <t>2804-06-16 06:36:15</t>
+  </si>
+  <si>
+    <t>1014-01-04 12:23:54</t>
+  </si>
+  <si>
+    <t>2022-09-09 03:16:54</t>
+  </si>
+  <si>
+    <t>2110-11-27 05:06:44</t>
+  </si>
+  <si>
+    <t>2804-06-19 06:36:15</t>
+  </si>
+  <si>
+    <t>AAA0</t>
+  </si>
+  <si>
+    <t>AAA1</t>
+  </si>
+  <si>
+    <t>AAA2</t>
+  </si>
+  <si>
+    <t>AAA3</t>
+  </si>
+  <si>
+    <t>AAA4</t>
+  </si>
+  <si>
+    <t>AAA5</t>
+  </si>
+  <si>
+    <t>AAA6</t>
+  </si>
+  <si>
+    <t>2022-12-07 03:16:54</t>
+  </si>
+  <si>
+    <t>AAA7</t>
+  </si>
+  <si>
+    <t>AAA8</t>
+  </si>
+  <si>
+    <t>AAA9</t>
+  </si>
+  <si>
+    <t>AAB0</t>
+  </si>
+  <si>
+    <t>aso-LJk-08SS</t>
+  </si>
+  <si>
+    <t>osk-iw9-IS8K</t>
+  </si>
+  <si>
+    <t>kja-pkJ-232r</t>
+  </si>
+  <si>
+    <t>Sin_plomo_98</t>
+  </si>
+  <si>
+    <t>Sin_plomo_95</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Diesel premium</t>
+  </si>
+  <si>
+    <t>Gasoleo bonificado</t>
+  </si>
+  <si>
+    <t>DEL BUENO</t>
+  </si>
+  <si>
     <t>GLP</t>
   </si>
   <si>
-    <t>Número de surtidor</t>
-  </si>
-  <si>
-    <t>Temperatura</t>
-  </si>
-  <si>
-    <t>Presión</t>
-  </si>
-  <si>
     <t>Hidrógeno</t>
   </si>
   <si>
-    <t>Aislante</t>
-  </si>
-  <si>
-    <t>Densidad</t>
-  </si>
-  <si>
-    <t>2x1</t>
-  </si>
-  <si>
-    <t>TODO 50%</t>
-  </si>
-  <si>
-    <t>BARRA PLUS 50cent</t>
-  </si>
-  <si>
-    <t>1010-08-06 15:16:14</t>
-  </si>
-  <si>
-    <t>2008-11-22 16:14:15</t>
-  </si>
-  <si>
-    <t>3000-03-15 14:15:16</t>
-  </si>
-  <si>
-    <t>El chuches</t>
-  </si>
-  <si>
-    <t>44150783Y</t>
-  </si>
-  <si>
-    <t>95551913T</t>
-  </si>
-  <si>
-    <t>61244769R</t>
-  </si>
-  <si>
-    <t>32491205W</t>
-  </si>
-  <si>
-    <t>48053069C</t>
-  </si>
-  <si>
-    <t>Tu gasolinero</t>
-  </si>
-  <si>
-    <t>La gran manguera</t>
-  </si>
-  <si>
-    <t>Mmmmm gasss</t>
-  </si>
-  <si>
-    <t>Pepe Castello</t>
-  </si>
-  <si>
-    <t>Luis Fuentes</t>
-  </si>
-  <si>
-    <t>Domingo Martes</t>
-  </si>
-  <si>
-    <t>Luisa Zaplana</t>
-  </si>
-  <si>
-    <t>Marta Izquierdo</t>
-  </si>
-  <si>
-    <t>qqq@hotmail.es</t>
-  </si>
-  <si>
-    <t>jisusesbien@gmail.com</t>
-  </si>
-  <si>
-    <t>vibaio@yahoo.org</t>
-  </si>
-  <si>
-    <t>errornotfound@gmail.net</t>
-  </si>
-  <si>
-    <t>micorreojajaxd@hotmail.es</t>
-  </si>
-  <si>
-    <t>Jordi ENP</t>
+    <t>ME SIRVIERON AGUA!!!</t>
+  </si>
+  <si>
+    <t>MASTODÖNTICA</t>
+  </si>
+  <si>
+    <t>HORRIBLISIMA</t>
+  </si>
+  <si>
+    <t>SIGANME EN INSTA :)</t>
+  </si>
+  <si>
+    <t>2031-12-20 11:31:24</t>
+  </si>
+  <si>
+    <t>1001-08-14 07:32:15</t>
+  </si>
+  <si>
+    <t>2201-09-01 01:58:23</t>
+  </si>
+  <si>
+    <t>1310-08-06 15:16:14</t>
+  </si>
+  <si>
+    <t>1054-01-01 12:23:54</t>
+  </si>
+  <si>
+    <t>2201-05-10 17:40:45</t>
+  </si>
+  <si>
+    <t>2018-11-22 16:14:15</t>
+  </si>
+  <si>
+    <t>2030-03-12 12:34:12</t>
+  </si>
+  <si>
+    <t>1357-01-23 01:11:14</t>
+  </si>
+  <si>
+    <t>1988-12-13 15:43:14</t>
+  </si>
+  <si>
+    <t>2008-06-18 19:14:13</t>
+  </si>
+  <si>
+    <t>2032-12-22 09:34:48</t>
+  </si>
+  <si>
+    <t>1454-11-21 02:43:54</t>
   </si>
 </sst>
 </file>
@@ -892,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -938,17 +1127,14 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,11 +1142,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1276,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
-  <dimension ref="A1:CG23"/>
+  <dimension ref="A1:CE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,137 +1500,143 @@
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.6640625" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.83203125" customWidth="1"/>
-    <col min="44" max="44" width="16" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" customWidth="1"/>
-    <col min="52" max="52" width="14.6640625" customWidth="1"/>
-    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5" customWidth="1"/>
+    <col min="47" max="47" width="14.6640625" customWidth="1"/>
+    <col min="48" max="48" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.5" customWidth="1"/>
+    <col min="70" max="70" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="34"/>
+      <c r="D1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="31" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="Y1" s="32" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="Y1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AB1" s="27" t="s">
+      <c r="Z1" s="33"/>
+      <c r="AB1" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AG1" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AL1" s="29" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AL1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AP1" s="31" t="s">
+      <c r="AM1" s="37"/>
+      <c r="AO1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AU1" s="32" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AT1" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AY1" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BE1" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BJ1" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BN1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BR1" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BW1" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CC1" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AY1" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BE1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BK1" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BP1" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BT1" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BX1" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CC1" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="32"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1530,116 +1736,113 @@
       <c r="AM2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AO2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AP2" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AT2" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AU2" s="19" t="s">
+      <c r="BO2" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="19" t="s">
+      <c r="CD2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AW2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BK2" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL2" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="BM2" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="BN2" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP2" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="BQ2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BR2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU2" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="BV2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="BX2" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="BY2" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BZ2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="CA2" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>209</v>
+      <c r="CE2" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1906,7 @@
       <c r="W3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="33">
+      <c r="Y3" s="27">
         <v>6736308609</v>
       </c>
       <c r="Z3" s="20" t="s">
@@ -1713,66 +1916,139 @@
         <v>4</v>
       </c>
       <c r="AC3" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD3" s="22">
         <v>2</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG3" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL3" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM3" s="25">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU3" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AY3" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ3" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA3" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB3" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="25"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="20"/>
-      <c r="BX3" s="22"/>
-      <c r="BY3" s="22"/>
-      <c r="BZ3" s="22"/>
-      <c r="CA3" s="22"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="23"/>
-      <c r="CE3" s="23"/>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="23"/>
+      <c r="AV3" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY3" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ3" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="39">
+        <v>25</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="BE3" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF3" s="25">
+        <v>10</v>
+      </c>
+      <c r="BG3" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="BH3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL3" s="12">
+        <v>20</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO3" s="20">
+        <v>3</v>
+      </c>
+      <c r="BP3" s="20">
+        <v>2393</v>
+      </c>
+      <c r="BR3" s="22">
+        <v>6</v>
+      </c>
+      <c r="BS3" s="22">
+        <v>24</v>
+      </c>
+      <c r="BT3" s="22">
+        <v>5609</v>
+      </c>
+      <c r="BU3" s="22">
+        <v>4656</v>
+      </c>
+      <c r="BW3" s="23">
+        <v>7</v>
+      </c>
+      <c r="BX3" s="23">
+        <v>28</v>
+      </c>
+      <c r="BY3" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ3" s="23">
+        <v>9234</v>
+      </c>
+      <c r="CA3" s="23">
+        <v>5656</v>
+      </c>
+      <c r="CC3" s="31">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="CE3" s="12">
+        <v>6787</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +2112,7 @@
       <c r="W4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="27">
         <v>8386273333</v>
       </c>
       <c r="Z4" s="26" t="s">
@@ -1846,28 +2122,112 @@
         <v>9</v>
       </c>
       <c r="AC4" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD4" s="22">
         <v>50</v>
       </c>
-      <c r="AE4" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AE4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL4" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="AZ4" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="BA4" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="BB4" s="35" t="s">
-        <v>231</v>
+      <c r="AM4" s="25">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU4" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV4" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY4" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="39">
+        <v>26</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC4" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE4" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF4" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>10</v>
+      </c>
+      <c r="BN4" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="BO4" s="20">
+        <v>4</v>
+      </c>
+      <c r="BP4" s="20">
+        <v>2242</v>
+      </c>
+      <c r="CC4" s="31">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>6866</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2291,7 @@
       <c r="W5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="33">
+      <c r="Y5" s="27">
         <v>8808967411</v>
       </c>
       <c r="Z5" s="20" t="s">
@@ -1941,28 +2301,103 @@
         <v>5</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AD5" s="22">
         <v>30</v>
       </c>
-      <c r="AE5" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY5" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ5" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA5" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB5" s="35" t="s">
-        <v>232</v>
+      <c r="AE5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG5" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH5" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM5" s="25">
+        <v>16</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU5" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV5" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW5" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="39">
+        <v>38</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>30</v>
+      </c>
+      <c r="BC5" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE5" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF5" s="25">
+        <v>9</v>
+      </c>
+      <c r="BG5" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH5" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ5" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL5" s="12">
+        <v>20</v>
+      </c>
+      <c r="BN5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="BO5" s="20">
+        <v>5</v>
+      </c>
+      <c r="BP5" s="20">
+        <v>2424</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2026,26 +2461,92 @@
       <c r="W6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="33">
+      <c r="Y6" s="27">
         <v>7978364851</v>
       </c>
       <c r="Z6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AY6" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="AZ6" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="BA6" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB6" s="35" t="s">
-        <v>233</v>
+      <c r="AG6" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH6" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL6" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM6" s="25">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU6" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV6" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW6" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY6" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ6" s="40">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="39">
+        <v>25</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC6" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="BE6" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="BF6" s="25">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH6" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL6" s="12">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2109,26 +2610,80 @@
       <c r="W7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="33">
+      <c r="Y7" s="27">
         <v>8110515984</v>
       </c>
       <c r="Z7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AY7" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ7" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA7" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB7" s="35" t="s">
-        <v>234</v>
+      <c r="AG7" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH7" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL7" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM7" s="25">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU7" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV7" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW7" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY7" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ7" s="40">
+        <v>3</v>
+      </c>
+      <c r="BA7" s="39">
+        <v>37</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>30</v>
+      </c>
+      <c r="BC7" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="BJ7" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK7" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL7" s="12">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2186,14 +2741,59 @@
       <c r="W8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="27">
         <v>8125519483</v>
       </c>
       <c r="Z8" s="20" t="s">
         <v>72</v>
       </c>
+      <c r="AG8" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH8" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM8" s="25">
+        <v>16</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ8" s="40">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="39">
+        <v>49</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC8" s="30" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2251,14 +2851,59 @@
       <c r="W9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="33">
+      <c r="Y9" s="27">
         <v>7652234574</v>
       </c>
       <c r="Z9" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="AG9" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH9" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL9" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM9" s="25">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ9" s="40">
+        <v>4</v>
+      </c>
+      <c r="BA9" s="39">
+        <v>24</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC9" s="30" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -2299,14 +2944,59 @@
       <c r="W10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" s="33">
+      <c r="Y10" s="27">
         <v>6514691429</v>
       </c>
       <c r="Z10" s="20" t="s">
         <v>86</v>
       </c>
+      <c r="AG10" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL10" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM10" s="25">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ10" s="40">
+        <v>4</v>
+      </c>
+      <c r="BA10" s="39">
+        <v>37</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>30</v>
+      </c>
+      <c r="BC10" s="30" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -2346,14 +3036,59 @@
       <c r="W11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="33">
+      <c r="Y11" s="27">
         <v>8482022516</v>
       </c>
       <c r="Z11" s="20" t="s">
         <v>91</v>
       </c>
+      <c r="AG11" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH11" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL11" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>9999</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ11" s="40">
+        <v>4</v>
+      </c>
+      <c r="BA11" s="39">
+        <v>25</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC11" s="30" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -2393,14 +3128,59 @@
       <c r="W12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="27">
         <v>6855050038</v>
       </c>
       <c r="Z12" s="20" t="s">
         <v>96</v>
       </c>
+      <c r="AG12" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH12" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL12" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM12" s="25">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ12" s="40">
+        <v>4</v>
+      </c>
+      <c r="BA12" s="39">
+        <v>50</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>40</v>
+      </c>
+      <c r="BC12" s="30" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -2440,14 +3220,59 @@
       <c r="W13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="27">
         <v>6250807264</v>
       </c>
       <c r="Z13" s="20" t="s">
         <v>102</v>
       </c>
+      <c r="AG13" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH13" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL13" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ13" s="40">
+        <v>5</v>
+      </c>
+      <c r="BA13" s="39">
+        <v>26</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>20</v>
+      </c>
+      <c r="BC13" s="30" t="s">
+        <v>295</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -2487,14 +3312,47 @@
       <c r="W14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y14" s="33">
+      <c r="Y14" s="27">
         <v>6437966006</v>
       </c>
       <c r="Z14" s="20" t="s">
         <v>110</v>
       </c>
+      <c r="AL14" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ14" s="40">
+        <v>6</v>
+      </c>
+      <c r="BA14" s="39">
+        <v>37</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>30</v>
+      </c>
+      <c r="BC14" s="30" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -2534,14 +3392,47 @@
       <c r="W15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y15" s="33">
+      <c r="Y15" s="27">
         <v>7415857148</v>
       </c>
       <c r="Z15" s="20" t="s">
         <v>113</v>
       </c>
+      <c r="AL15" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>6</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ15" s="40">
+        <v>7</v>
+      </c>
+      <c r="BA15" s="39">
+        <v>38</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>30</v>
+      </c>
+      <c r="BC15" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -2581,14 +3472,32 @@
       <c r="W16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="27">
         <v>6646871792</v>
       </c>
       <c r="Z16" s="20" t="s">
         <v>119</v>
       </c>
+      <c r="AL16" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM16" s="25">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -2628,14 +3537,26 @@
       <c r="W17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="33">
+      <c r="Y17" s="27">
         <v>7752334705</v>
       </c>
       <c r="Z17" s="20" t="s">
         <v>125</v>
       </c>
+      <c r="AO17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -2675,14 +3596,26 @@
       <c r="W18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="33">
+      <c r="Y18" s="27">
         <v>7768753059</v>
       </c>
       <c r="Z18" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="AO18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -2722,14 +3655,26 @@
       <c r="W19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="27">
         <v>7680024416</v>
       </c>
       <c r="Z19" s="20" t="s">
         <v>138</v>
       </c>
+      <c r="AO19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ19" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -2769,14 +3714,26 @@
       <c r="W20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" s="33">
+      <c r="Y20" s="27">
         <v>7305196599</v>
       </c>
       <c r="Z20" s="20" t="s">
         <v>144</v>
       </c>
+      <c r="AO20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -2816,14 +3773,26 @@
       <c r="W21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="Y21" s="33">
+      <c r="Y21" s="27">
         <v>7822734752</v>
       </c>
       <c r="Z21" s="20" t="s">
         <v>150</v>
       </c>
+      <c r="AO21" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ21" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -2863,14 +3832,26 @@
       <c r="W22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y22" s="33">
+      <c r="Y22" s="27">
         <v>7743568674</v>
       </c>
       <c r="Z22" s="20" t="s">
         <v>156</v>
       </c>
+      <c r="AO22" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="11:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:44" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -2910,31 +3891,85 @@
       <c r="W23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Y23" s="33">
+      <c r="Y23" s="27">
         <v>7740076737</v>
       </c>
       <c r="Z23" s="20" t="s">
         <v>161</v>
+      </c>
+      <c r="AO23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="AO24" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="AO25" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ25" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="11:44" x14ac:dyDescent="0.2">
+      <c r="AO26" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ26" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CC1:CG1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:W1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
@@ -2958,11 +3993,11 @@
     <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
     <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
     <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
-    <hyperlink ref="BB3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
-    <hyperlink ref="BB4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
-    <hyperlink ref="BB5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
-    <hyperlink ref="BB6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
-    <hyperlink ref="BB7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
+    <hyperlink ref="AW3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
+    <hyperlink ref="AW4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
+    <hyperlink ref="AW5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
+    <hyperlink ref="AW6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
+    <hyperlink ref="AW7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\BBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8D404-9ACA-C54E-AED4-D75B0F6A99F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="304">
   <si>
     <t>Tienda</t>
   </si>
@@ -922,13 +921,31 @@
   </si>
   <si>
     <t>1454-11-21 02:43:54</t>
+  </si>
+  <si>
+    <t>2049-11-21 02:43:54</t>
+  </si>
+  <si>
+    <t>5050-10-22 08:43:55</t>
+  </si>
+  <si>
+    <t>2018-03-30 12:13:26</t>
+  </si>
+  <si>
+    <t>2000-04-12 15:23:27</t>
+  </si>
+  <si>
+    <t>2032-01-11 05:21:08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -947,6 +964,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1077,11 +1101,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1139,21 +1164,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,9 +1171,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1180,7 +1216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1475,168 +1511,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
-  <dimension ref="A1:CE26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="BL6" sqref="BL6"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.69921875" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.83203125" customWidth="1"/>
+    <col min="39" max="39" width="12.796875" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1"/>
-    <col min="48" max="48" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.69921875" customWidth="1"/>
+    <col min="48" max="48" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.5" customWidth="1"/>
-    <col min="70" max="70" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.19921875" customWidth="1"/>
+    <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.5" customWidth="1"/>
+    <col min="71" max="71" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="K1" s="32" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="K1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="Y1" s="33" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="Y1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="33"/>
-      <c r="AB1" s="35" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AB1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="34" t="s">
+      <c r="AG1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AL1" s="37" t="s">
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AL1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="37"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AM1" s="40"/>
+      <c r="AO1" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AT1" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AY1" s="34" t="s">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AY1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BE1" s="37" t="s">
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BE1" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BJ1" s="32" t="s">
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BJ1" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BN1" s="33" t="s">
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="32"/>
+      <c r="BO1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BR1" s="35" t="s">
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BS1" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BW1" s="34" t="s">
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BX1" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CC1" s="32" t="s">
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CD1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1796,53 +1835,56 @@
       <c r="BL2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BN2" s="19" t="s">
+      <c r="BM2" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BO2" s="19" t="s">
+      <c r="BP2" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="BP2" s="19" t="s">
+      <c r="BQ2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BS2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BT2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CC2" s="11" t="s">
+      <c r="CD2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CE2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1924,7 +1966,7 @@
       <c r="AE3" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="42" t="s">
         <v>263</v>
       </c>
       <c r="AH3" s="30" t="s">
@@ -1969,10 +2011,10 @@
       <c r="AY3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ3" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="39">
+      <c r="AZ3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="34">
         <v>25</v>
       </c>
       <c r="BB3" s="8">
@@ -1981,7 +2023,7 @@
       <c r="BC3" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="BE3" s="38" t="s">
+      <c r="BE3" s="33" t="s">
         <v>250</v>
       </c>
       <c r="BF3" s="25">
@@ -2002,53 +2044,56 @@
       <c r="BL3" s="12">
         <v>20</v>
       </c>
-      <c r="BN3" s="20" t="s">
+      <c r="BM3" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="BO3" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="BO3" s="20">
+      <c r="BP3" s="20">
         <v>3</v>
       </c>
-      <c r="BP3" s="20">
+      <c r="BQ3" s="20">
         <v>2393</v>
       </c>
-      <c r="BR3" s="22">
+      <c r="BS3" s="22">
         <v>6</v>
       </c>
-      <c r="BS3" s="22">
+      <c r="BT3" s="22">
         <v>24</v>
       </c>
-      <c r="BT3" s="22">
+      <c r="BU3" s="22">
         <v>5609</v>
       </c>
-      <c r="BU3" s="22">
+      <c r="BV3" s="22">
         <v>4656</v>
       </c>
-      <c r="BW3" s="23">
+      <c r="BX3" s="23">
         <v>7</v>
       </c>
-      <c r="BX3" s="23">
+      <c r="BY3" s="23">
         <v>28</v>
       </c>
-      <c r="BY3" s="23" t="s">
+      <c r="BZ3" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="BZ3" s="23">
+      <c r="CA3" s="23">
         <v>9234</v>
       </c>
-      <c r="CA3" s="23">
+      <c r="CB3" s="23">
         <v>5656</v>
       </c>
-      <c r="CC3" s="31">
+      <c r="CD3" s="31">
         <v>1</v>
       </c>
-      <c r="CD3" s="12" t="s">
+      <c r="CE3" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="CE3" s="12">
+      <c r="CF3" s="12">
         <v>6787</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2175,10 +2220,10 @@
       <c r="AY4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ4" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="39">
+      <c r="AZ4" s="35">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="34">
         <v>26</v>
       </c>
       <c r="BB4" s="8">
@@ -2187,7 +2232,7 @@
       <c r="BC4" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="BE4" s="38" t="s">
+      <c r="BE4" s="33" t="s">
         <v>286</v>
       </c>
       <c r="BF4" s="25">
@@ -2208,26 +2253,29 @@
       <c r="BL4" s="12">
         <v>10</v>
       </c>
-      <c r="BN4" s="20" t="s">
+      <c r="BM4" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="BO4" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="BO4" s="20">
+      <c r="BP4" s="20">
         <v>4</v>
       </c>
-      <c r="BP4" s="20">
+      <c r="BQ4" s="20">
         <v>2242</v>
       </c>
-      <c r="CC4" s="31">
+      <c r="CD4" s="31">
         <v>2</v>
       </c>
-      <c r="CD4" s="12" t="s">
+      <c r="CE4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="CE4" s="12">
+      <c r="CF4" s="12">
         <v>6866</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2354,10 +2402,10 @@
       <c r="AY5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ5" s="40">
+      <c r="AZ5" s="35">
         <v>1</v>
       </c>
-      <c r="BA5" s="39">
+      <c r="BA5" s="34">
         <v>38</v>
       </c>
       <c r="BB5" s="8">
@@ -2366,7 +2414,7 @@
       <c r="BC5" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="BE5" s="38" t="s">
+      <c r="BE5" s="33" t="s">
         <v>287</v>
       </c>
       <c r="BF5" s="25">
@@ -2387,17 +2435,20 @@
       <c r="BL5" s="12">
         <v>20</v>
       </c>
-      <c r="BN5" s="20" t="s">
+      <c r="BM5" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO5" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="BO5" s="20">
+      <c r="BP5" s="20">
         <v>5</v>
       </c>
-      <c r="BP5" s="20">
+      <c r="BQ5" s="20">
         <v>2424</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2512,10 +2563,10 @@
       <c r="AY6" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ6" s="40">
+      <c r="AZ6" s="35">
         <v>2</v>
       </c>
-      <c r="BA6" s="39">
+      <c r="BA6" s="34">
         <v>25</v>
       </c>
       <c r="BB6" s="8">
@@ -2524,7 +2575,7 @@
       <c r="BC6" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="BE6" s="38" t="s">
+      <c r="BE6" s="33" t="s">
         <v>288</v>
       </c>
       <c r="BF6" s="25">
@@ -2545,8 +2596,11 @@
       <c r="BL6" s="12">
         <v>15</v>
       </c>
+      <c r="BM6" s="44" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2661,10 +2715,10 @@
       <c r="AY7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ7" s="40">
+      <c r="AZ7" s="35">
         <v>3</v>
       </c>
-      <c r="BA7" s="39">
+      <c r="BA7" s="34">
         <v>37</v>
       </c>
       <c r="BB7" s="8">
@@ -2682,8 +2736,11 @@
       <c r="BL7" s="12">
         <v>20</v>
       </c>
+      <c r="BM7" s="44" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2780,10 +2837,10 @@
       <c r="AY8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ8" s="40">
+      <c r="AZ8" s="35">
         <v>3</v>
       </c>
-      <c r="BA8" s="39">
+      <c r="BA8" s="34">
         <v>49</v>
       </c>
       <c r="BB8" s="8">
@@ -2793,7 +2850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2890,10 +2947,10 @@
       <c r="AY9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ9" s="40">
+      <c r="AZ9" s="35">
         <v>4</v>
       </c>
-      <c r="BA9" s="39">
+      <c r="BA9" s="34">
         <v>24</v>
       </c>
       <c r="BB9" s="8">
@@ -2903,7 +2960,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -2983,10 +3040,10 @@
       <c r="AY10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ10" s="40">
+      <c r="AZ10" s="35">
         <v>4</v>
       </c>
-      <c r="BA10" s="39">
+      <c r="BA10" s="34">
         <v>37</v>
       </c>
       <c r="BB10" s="8">
@@ -2996,7 +3053,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3075,10 +3132,10 @@
       <c r="AY11" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ11" s="40">
+      <c r="AZ11" s="35">
         <v>4</v>
       </c>
-      <c r="BA11" s="39">
+      <c r="BA11" s="34">
         <v>25</v>
       </c>
       <c r="BB11" s="8">
@@ -3088,7 +3145,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3167,10 +3224,10 @@
       <c r="AY12" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ12" s="40">
+      <c r="AZ12" s="35">
         <v>4</v>
       </c>
-      <c r="BA12" s="39">
+      <c r="BA12" s="34">
         <v>50</v>
       </c>
       <c r="BB12" s="8">
@@ -3180,7 +3237,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3259,10 +3316,10 @@
       <c r="AY13" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ13" s="40">
+      <c r="AZ13" s="35">
         <v>5</v>
       </c>
-      <c r="BA13" s="39">
+      <c r="BA13" s="34">
         <v>26</v>
       </c>
       <c r="BB13" s="8">
@@ -3272,7 +3329,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3339,10 +3396,10 @@
       <c r="AY14" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ14" s="40">
+      <c r="AZ14" s="35">
         <v>6</v>
       </c>
-      <c r="BA14" s="39">
+      <c r="BA14" s="34">
         <v>37</v>
       </c>
       <c r="BB14" s="8">
@@ -3352,7 +3409,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3419,10 +3476,10 @@
       <c r="AY15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ15" s="40">
+      <c r="AZ15" s="35">
         <v>7</v>
       </c>
-      <c r="BA15" s="39">
+      <c r="BA15" s="34">
         <v>38</v>
       </c>
       <c r="BB15" s="8">
@@ -3432,7 +3489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3497,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -3556,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -3615,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -3674,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -3733,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -3792,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -3851,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -3910,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:44" x14ac:dyDescent="0.3">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -3924,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:44" x14ac:dyDescent="0.3">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -3938,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="11:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:44" x14ac:dyDescent="0.3">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -3954,15 +4011,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="BJ1:BL1"/>
@@ -3970,34 +4022,39 @@
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AL1:AM1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{E36FDECD-F4E2-BC4B-ACBF-4FBB45B44143}"/>
-    <hyperlink ref="N3" r:id="rId3" xr:uid="{FF066FEE-71A8-544B-9FBF-4AC94D59BAAF}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{1579776B-8220-A246-8143-06B2F6B62E84}"/>
-    <hyperlink ref="N7" r:id="rId5" xr:uid="{9924B550-B8D4-A947-B99D-E1DADD5B3530}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{241CD680-78FA-B04B-8CDB-B5DB272E1DBC}"/>
-    <hyperlink ref="N9" r:id="rId7" xr:uid="{D3E4E9CF-D32B-F945-A8E6-E9378D9CA45B}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{47F3B889-30B0-AF4F-8081-426432D66C84}"/>
-    <hyperlink ref="N11" r:id="rId9" xr:uid="{DA277728-F068-784D-B72D-D9C9C70BC2D1}"/>
-    <hyperlink ref="N12" r:id="rId10" xr:uid="{9870BC31-A788-9441-AACD-103985C0FEAD}"/>
-    <hyperlink ref="N13" r:id="rId11" xr:uid="{428E71EA-ED7E-1D41-AB9F-D1B2762E04B7}"/>
-    <hyperlink ref="N14" r:id="rId12" xr:uid="{EC71574E-409D-984C-81F1-F0ABD6643445}"/>
-    <hyperlink ref="N15" r:id="rId13" xr:uid="{3DFA001A-B5E0-CC47-8231-D4F8B9F4D50D}"/>
-    <hyperlink ref="N16" r:id="rId14" xr:uid="{7F2B1B62-A90E-2E41-A668-4760D20F5763}"/>
-    <hyperlink ref="N17" r:id="rId15" xr:uid="{663788E9-3E25-8A40-851B-D113CAF80797}"/>
-    <hyperlink ref="N18" r:id="rId16" xr:uid="{EF17043E-6AFC-C246-9DC7-002C6056897A}"/>
-    <hyperlink ref="N19" r:id="rId17" xr:uid="{0DD8FBE2-D151-384E-AF79-D15562B67341}"/>
-    <hyperlink ref="N20" r:id="rId18" xr:uid="{226D5E8A-6996-224F-B7DF-167B918754C9}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
-    <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
-    <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
-    <hyperlink ref="AW3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
-    <hyperlink ref="AW4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
-    <hyperlink ref="AW5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
-    <hyperlink ref="AW6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
-    <hyperlink ref="AW7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="N6" r:id="rId2"/>
+    <hyperlink ref="N3" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="N8" r:id="rId6"/>
+    <hyperlink ref="N9" r:id="rId7"/>
+    <hyperlink ref="N10" r:id="rId8"/>
+    <hyperlink ref="N11" r:id="rId9"/>
+    <hyperlink ref="N12" r:id="rId10"/>
+    <hyperlink ref="N13" r:id="rId11"/>
+    <hyperlink ref="N14" r:id="rId12"/>
+    <hyperlink ref="N15" r:id="rId13"/>
+    <hyperlink ref="N16" r:id="rId14"/>
+    <hyperlink ref="N17" r:id="rId15"/>
+    <hyperlink ref="N18" r:id="rId16"/>
+    <hyperlink ref="N19" r:id="rId17"/>
+    <hyperlink ref="N20" r:id="rId18"/>
+    <hyperlink ref="N21" r:id="rId19"/>
+    <hyperlink ref="N22" r:id="rId20"/>
+    <hyperlink ref="N23" r:id="rId21"/>
+    <hyperlink ref="AW3" r:id="rId22"/>
+    <hyperlink ref="AW4" r:id="rId23"/>
+    <hyperlink ref="AW5" r:id="rId24"/>
+    <hyperlink ref="AW6" r:id="rId25"/>
+    <hyperlink ref="AW7" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/REGISTROS.xlsx
+++ b/REGISTROS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD83138-3828-A146-AE17-0320B46ED9AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="326">
   <si>
     <t>Tienda</t>
   </si>
@@ -923,29 +924,92 @@
     <t>1454-11-21 02:43:54</t>
   </si>
   <si>
-    <t>2049-11-21 02:43:54</t>
-  </si>
-  <si>
-    <t>5050-10-22 08:43:55</t>
-  </si>
-  <si>
-    <t>2018-03-30 12:13:26</t>
-  </si>
-  <si>
-    <t>2000-04-12 15:23:27</t>
-  </si>
-  <si>
-    <t>2032-01-11 05:21:08</t>
+    <t>Pregunta:</t>
+  </si>
+  <si>
+    <t>Respuesta:</t>
+  </si>
+  <si>
+    <t>#Surtidores = 7</t>
+  </si>
+  <si>
+    <t>Ticket :: Contine =&gt; Catidad * :: Artículo =&gt; PvP =  Kiosko: 113, Ultramarinos 104, Librería: 5, Panadería: 34, Cafetería: 70011, TOTAL: 70260</t>
+  </si>
+  <si>
+    <t>Artículos =&gt; Código_de_barras, PvP (MOSTRAR)</t>
+  </si>
+  <si>
+    <t>(MOSTRAR) nombres de los empleados con turno MAÑANA que trabajan en una tienda =&gt; Dugan Gallardo Barraza, Elisabethz Ochoa Vargas, Kim Dot Com, Olimpia Luevano Gaona</t>
+  </si>
+  <si>
+    <t>(MOSTRAR) Puntos canjeados por cada cliente con identificador y nombre</t>
+  </si>
+  <si>
+    <t>2392-07-02 10:13:15</t>
+  </si>
+  <si>
+    <t>Artículos (5) mas canjeados =&gt; iKl-ks7-Jh0e, wef-rKM-dD93, kja-pkJ-232r, hs8-pqw-H78, LM8-gsi-6tYd</t>
+  </si>
+  <si>
+    <t>De los tikets premiados el 50% de su importe =&gt; 35025.5</t>
+  </si>
+  <si>
+    <t>Media de las puntuaciones =&gt; 6.5</t>
+  </si>
+  <si>
+    <t>Tickets emitidos por tienda mostrando el número y nombre de la tienda</t>
+  </si>
+  <si>
+    <t>Tienda con más tickets premiados</t>
+  </si>
+  <si>
+    <t>Mostrar los litros repostados en cada surtidor =&gt; 0: 40, 1: 30, 2: 20, 3: 70, 4: 110, 5: 20, 6:30, 7: 30</t>
+  </si>
+  <si>
+    <t>Precio y capacidad medias de los surtidores de gasolina y gasoil</t>
+  </si>
+  <si>
+    <t>Número de trabajadores por tienda y surtidor =&gt; Todos 2 menos Kiosko, Librería y Panadería que tienen 1</t>
+  </si>
+  <si>
+    <t>Número de surtidores de gasolina: 2, gasoleo: 3, GLP:1 e hidrígeno:1</t>
+  </si>
+  <si>
+    <t>Porcentaje de surtidores gasolina:28%, gasoleo:43%, GLP:14% e hidrógeno:14%</t>
+  </si>
+  <si>
+    <t>Valor total de los artículos canjeados =&gt;  127</t>
+  </si>
+  <si>
+    <t>(MOSTRAR) fechas de surtidores averiados</t>
+  </si>
+  <si>
+    <t>(MOSTRAR) supervisores de los trabajadores de surtidores GLP en los que los clientes hayan respostado y canjeado =&gt; Segismundo Molina Medrano y puede que Ignatuis</t>
+  </si>
+  <si>
+    <t>gha-GTn-s12r</t>
+  </si>
+  <si>
+    <t>Zma-Vkz-dj8x</t>
+  </si>
+  <si>
+    <t>1902-11-12 14:21:42</t>
+  </si>
+  <si>
+    <t>Artículos ni canjeados ni comprados =&gt; Zma-Vkz-dj8x</t>
+  </si>
+  <si>
+    <t>Artículos canjeados y comprados =&gt; Todos menos Zma-Vkz-dj8x y gha-GTn-s12r</t>
+  </si>
+  <si>
+    <t>Canjeados y comprados sin estar en tickets premiados Akn-3jn-NS9, iKl-ks7-Jh0e, LM8-gsi-6tYd, bnc-mbU-OP87, bcy-JGH-98HJ, wef-rKM-dD93, aso-LJk-08SS, osk-iw9-IS8K, kja-pkJ-232r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,13 +1028,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1101,12 +1158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1161,9 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,17 +1242,11 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1216,7 +1263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1511,171 +1558,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
+  <dimension ref="A1:CI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN26" sqref="AN26"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="CJ22" sqref="CJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="33" max="33" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.69921875" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.796875" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="14.69921875" customWidth="1"/>
-    <col min="48" max="48" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.6640625" customWidth="1"/>
+    <col min="48" max="48" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.19921875" customWidth="1"/>
+    <col min="64" max="64" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18.5" customWidth="1"/>
     <col min="71" max="71" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="151.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="38" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="Y1" s="39" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="Y1" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Z1" s="38"/>
+      <c r="AB1" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AL1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="40"/>
-      <c r="AO1" s="38" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AO1" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AT1" s="41" t="s">
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AT1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AY1" s="36" t="s">
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AY1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BE1" s="40" t="s">
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BE1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BJ1" s="38" t="s">
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BJ1" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="32"/>
-      <c r="BO1" s="39" t="s">
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BO1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BS1" s="41" t="s">
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BS1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BX1" s="36" t="s">
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BX1" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CD1" s="38" t="s">
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CD1" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CH1" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="CI1" s="41" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1888,7 @@
       <c r="BL2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BM2" s="43" t="s">
+      <c r="BM2" s="11" t="s">
         <v>197</v>
       </c>
       <c r="BO2" s="19" t="s">
@@ -1883,8 +1936,14 @@
       <c r="CF2" s="11" t="s">
         <v>32</v>
       </c>
+      <c r="CH2" s="19">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="20" t="s">
+        <v>303</v>
+      </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1966,7 +2025,7 @@
       <c r="AE3" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="23" t="s">
         <v>263</v>
       </c>
       <c r="AH3" s="30" t="s">
@@ -2011,10 +2070,10 @@
       <c r="AY3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="34">
+      <c r="AZ3" s="34">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="33">
         <v>25</v>
       </c>
       <c r="BB3" s="8">
@@ -2023,7 +2082,7 @@
       <c r="BC3" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="BE3" s="33" t="s">
+      <c r="BE3" s="32" t="s">
         <v>250</v>
       </c>
       <c r="BF3" s="25">
@@ -2044,8 +2103,8 @@
       <c r="BL3" s="12">
         <v>20</v>
       </c>
-      <c r="BM3" s="44" t="s">
-        <v>299</v>
+      <c r="BM3" s="42" t="s">
+        <v>292</v>
       </c>
       <c r="BO3" s="20" t="s">
         <v>276</v>
@@ -2092,8 +2151,14 @@
       <c r="CF3" s="12">
         <v>6787</v>
       </c>
+      <c r="CH3" s="19">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2220,10 +2285,10 @@
       <c r="AY4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ4" s="35">
-        <v>4</v>
-      </c>
-      <c r="BA4" s="34">
+      <c r="AZ4" s="34">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="33">
         <v>26</v>
       </c>
       <c r="BB4" s="8">
@@ -2232,7 +2297,7 @@
       <c r="BC4" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="BE4" s="33" t="s">
+      <c r="BE4" s="32" t="s">
         <v>286</v>
       </c>
       <c r="BF4" s="25">
@@ -2253,8 +2318,8 @@
       <c r="BL4" s="12">
         <v>10</v>
       </c>
-      <c r="BM4" s="44" t="s">
-        <v>300</v>
+      <c r="BM4" s="42" t="s">
+        <v>297</v>
       </c>
       <c r="BO4" s="20" t="s">
         <v>277</v>
@@ -2274,8 +2339,14 @@
       <c r="CF4" s="12">
         <v>6866</v>
       </c>
+      <c r="CH4" s="19">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="20" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2402,10 +2473,10 @@
       <c r="AY5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ5" s="35">
+      <c r="AZ5" s="34">
         <v>1</v>
       </c>
-      <c r="BA5" s="34">
+      <c r="BA5" s="33">
         <v>38</v>
       </c>
       <c r="BB5" s="8">
@@ -2414,7 +2485,7 @@
       <c r="BC5" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="BE5" s="33" t="s">
+      <c r="BE5" s="32" t="s">
         <v>287</v>
       </c>
       <c r="BF5" s="25">
@@ -2435,8 +2506,8 @@
       <c r="BL5" s="12">
         <v>20</v>
       </c>
-      <c r="BM5" s="44" t="s">
-        <v>301</v>
+      <c r="BM5" s="42" t="s">
+        <v>247</v>
       </c>
       <c r="BO5" s="20" t="s">
         <v>278</v>
@@ -2447,8 +2518,14 @@
       <c r="BQ5" s="20">
         <v>2424</v>
       </c>
+      <c r="CH5" s="19">
+        <v>4</v>
+      </c>
+      <c r="CI5" s="20" t="s">
+        <v>304</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2563,10 +2640,10 @@
       <c r="AY6" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ6" s="35">
+      <c r="AZ6" s="34">
         <v>2</v>
       </c>
-      <c r="BA6" s="34">
+      <c r="BA6" s="33">
         <v>25</v>
       </c>
       <c r="BB6" s="8">
@@ -2575,7 +2652,7 @@
       <c r="BC6" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="BE6" s="33" t="s">
+      <c r="BE6" s="32" t="s">
         <v>288</v>
       </c>
       <c r="BF6" s="25">
@@ -2596,11 +2673,17 @@
       <c r="BL6" s="12">
         <v>15</v>
       </c>
-      <c r="BM6" s="44" t="s">
-        <v>302</v>
+      <c r="BM6" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="CH6" s="19">
+        <v>5</v>
+      </c>
+      <c r="CI6" s="20" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2715,10 +2798,10 @@
       <c r="AY7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ7" s="35">
+      <c r="AZ7" s="34">
         <v>3</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="33">
         <v>37</v>
       </c>
       <c r="BB7" s="8">
@@ -2736,11 +2819,17 @@
       <c r="BL7" s="12">
         <v>20</v>
       </c>
-      <c r="BM7" s="44" t="s">
-        <v>303</v>
+      <c r="BM7" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH7" s="19">
+        <v>6</v>
+      </c>
+      <c r="CI7" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2837,10 +2926,10 @@
       <c r="AY8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ8" s="35">
+      <c r="AZ8" s="34">
         <v>3</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BA8" s="33">
         <v>49</v>
       </c>
       <c r="BB8" s="8">
@@ -2849,8 +2938,26 @@
       <c r="BC8" s="30" t="s">
         <v>247</v>
       </c>
+      <c r="BJ8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="BL8" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM8" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="CH8" s="19">
+        <v>7</v>
+      </c>
+      <c r="CI8" s="20" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -2947,10 +3054,10 @@
       <c r="AY9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ9" s="35">
+      <c r="AZ9" s="34">
         <v>4</v>
       </c>
-      <c r="BA9" s="34">
+      <c r="BA9" s="33">
         <v>24</v>
       </c>
       <c r="BB9" s="8">
@@ -2959,8 +3066,26 @@
       <c r="BC9" s="30" t="s">
         <v>290</v>
       </c>
+      <c r="BJ9" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL9" s="12">
+        <v>20</v>
+      </c>
+      <c r="BM9" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH9" s="19">
+        <v>8</v>
+      </c>
+      <c r="CI9" s="20" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -3040,10 +3165,10 @@
       <c r="AY10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ10" s="35">
+      <c r="AZ10" s="34">
         <v>4</v>
       </c>
-      <c r="BA10" s="34">
+      <c r="BA10" s="33">
         <v>37</v>
       </c>
       <c r="BB10" s="8">
@@ -3052,8 +3177,26 @@
       <c r="BC10" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="BJ10" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>5</v>
+      </c>
+      <c r="BM10" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH10" s="19">
+        <v>9</v>
+      </c>
+      <c r="CI10" s="20" t="s">
+        <v>310</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3132,10 +3275,10 @@
       <c r="AY11" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ11" s="35">
+      <c r="AZ11" s="34">
         <v>4</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BA11" s="33">
         <v>25</v>
       </c>
       <c r="BB11" s="8">
@@ -3144,8 +3287,26 @@
       <c r="BC11" s="30" t="s">
         <v>291</v>
       </c>
+      <c r="BJ11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL11" s="12">
+        <v>20</v>
+      </c>
+      <c r="BM11" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH11" s="19">
+        <v>10</v>
+      </c>
+      <c r="CI11" s="20" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3224,10 +3385,10 @@
       <c r="AY12" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ12" s="35">
+      <c r="AZ12" s="34">
         <v>4</v>
       </c>
-      <c r="BA12" s="34">
+      <c r="BA12" s="33">
         <v>50</v>
       </c>
       <c r="BB12" s="8">
@@ -3236,8 +3397,26 @@
       <c r="BC12" s="30" t="s">
         <v>296</v>
       </c>
+      <c r="BJ12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL12" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM12" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH12" s="19">
+        <v>11</v>
+      </c>
+      <c r="CI12" s="20" t="s">
+        <v>312</v>
+      </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3316,10 +3495,10 @@
       <c r="AY13" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ13" s="35">
+      <c r="AZ13" s="34">
         <v>5</v>
       </c>
-      <c r="BA13" s="34">
+      <c r="BA13" s="33">
         <v>26</v>
       </c>
       <c r="BB13" s="8">
@@ -3328,8 +3507,26 @@
       <c r="BC13" s="30" t="s">
         <v>295</v>
       </c>
+      <c r="BJ13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BK13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BL13" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM13" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH13" s="19">
+        <v>12</v>
+      </c>
+      <c r="CI13" s="20" t="s">
+        <v>313</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3396,10 +3593,10 @@
       <c r="AY14" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ14" s="35">
+      <c r="AZ14" s="34">
         <v>6</v>
       </c>
-      <c r="BA14" s="34">
+      <c r="BA14" s="33">
         <v>37</v>
       </c>
       <c r="BB14" s="8">
@@ -3408,8 +3605,26 @@
       <c r="BC14" s="30" t="s">
         <v>294</v>
       </c>
+      <c r="BJ14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL14" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM14" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="CH14" s="19">
+        <v>13</v>
+      </c>
+      <c r="CI14" s="20" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3476,10 +3691,10 @@
       <c r="AY15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ15" s="35">
+      <c r="AZ15" s="34">
         <v>7</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="33">
         <v>38</v>
       </c>
       <c r="BB15" s="8">
@@ -3488,8 +3703,26 @@
       <c r="BC15" s="30" t="s">
         <v>169</v>
       </c>
+      <c r="BJ15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="BL15" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM15" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="CH15" s="19">
+        <v>14</v>
+      </c>
+      <c r="CI15" s="20" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3553,8 +3786,26 @@
       <c r="AR16" s="12">
         <v>1</v>
       </c>
+      <c r="BJ16" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL16" s="12">
+        <v>15</v>
+      </c>
+      <c r="BM16" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="CH16" s="19">
+        <v>15</v>
+      </c>
+      <c r="CI16" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
-    <row r="17" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -3600,6 +3851,12 @@
       <c r="Z17" s="20" t="s">
         <v>125</v>
       </c>
+      <c r="AL17" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>4</v>
+      </c>
       <c r="AO17" s="12" t="s">
         <v>265</v>
       </c>
@@ -3612,8 +3869,26 @@
       <c r="AR17" s="12">
         <v>4</v>
       </c>
+      <c r="BJ17" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK17" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL17" s="12">
+        <v>15</v>
+      </c>
+      <c r="BM17" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH17" s="19">
+        <v>16</v>
+      </c>
+      <c r="CI17" s="20" t="s">
+        <v>317</v>
+      </c>
     </row>
-    <row r="18" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -3659,6 +3934,12 @@
       <c r="Z18" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="AL18" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>4</v>
+      </c>
       <c r="AO18" s="12" t="s">
         <v>265</v>
       </c>
@@ -3671,8 +3952,26 @@
       <c r="AR18" s="12">
         <v>2</v>
       </c>
+      <c r="BJ18" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK18" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="BL18" s="12">
+        <v>5</v>
+      </c>
+      <c r="BM18" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="CH18" s="19">
+        <v>17</v>
+      </c>
+      <c r="CI18" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="19" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -3730,8 +4029,26 @@
       <c r="AR19" s="12">
         <v>1</v>
       </c>
+      <c r="BJ19" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK19" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL19" s="12">
+        <v>10</v>
+      </c>
+      <c r="BM19" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="CH19" s="19">
+        <v>18</v>
+      </c>
+      <c r="CI19" s="20" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="20" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -3789,8 +4106,14 @@
       <c r="AR20" s="12">
         <v>2</v>
       </c>
+      <c r="CH20" s="19">
+        <v>19</v>
+      </c>
+      <c r="CI20" s="20" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="21" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -3848,8 +4171,14 @@
       <c r="AR21" s="12">
         <v>2</v>
       </c>
+      <c r="CH21" s="19">
+        <v>20</v>
+      </c>
+      <c r="CI21" s="20" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="22" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -3907,8 +4236,14 @@
       <c r="AR22" s="12">
         <v>1</v>
       </c>
+      <c r="CH22" s="19">
+        <v>21</v>
+      </c>
+      <c r="CI22" s="20" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="23" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:87" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -3967,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:87" x14ac:dyDescent="0.2">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -3981,7 +4316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:87" x14ac:dyDescent="0.2">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -3995,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:87" x14ac:dyDescent="0.2">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -4017,11 +4352,11 @@
     <mergeCell ref="BS1:BV1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="BE1:BH1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="BJ1:BM1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:W1"/>
@@ -4029,32 +4364,32 @@
     <mergeCell ref="AL1:AM1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1"/>
-    <hyperlink ref="N6" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="N4" r:id="rId4"/>
-    <hyperlink ref="N7" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
-    <hyperlink ref="N9" r:id="rId7"/>
-    <hyperlink ref="N10" r:id="rId8"/>
-    <hyperlink ref="N11" r:id="rId9"/>
-    <hyperlink ref="N12" r:id="rId10"/>
-    <hyperlink ref="N13" r:id="rId11"/>
-    <hyperlink ref="N14" r:id="rId12"/>
-    <hyperlink ref="N15" r:id="rId13"/>
-    <hyperlink ref="N16" r:id="rId14"/>
-    <hyperlink ref="N17" r:id="rId15"/>
-    <hyperlink ref="N18" r:id="rId16"/>
-    <hyperlink ref="N19" r:id="rId17"/>
-    <hyperlink ref="N20" r:id="rId18"/>
-    <hyperlink ref="N21" r:id="rId19"/>
-    <hyperlink ref="N22" r:id="rId20"/>
-    <hyperlink ref="N23" r:id="rId21"/>
-    <hyperlink ref="AW3" r:id="rId22"/>
-    <hyperlink ref="AW4" r:id="rId23"/>
-    <hyperlink ref="AW5" r:id="rId24"/>
-    <hyperlink ref="AW6" r:id="rId25"/>
-    <hyperlink ref="AW7" r:id="rId26"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
+    <hyperlink ref="N6" r:id="rId2" xr:uid="{E36FDECD-F4E2-BC4B-ACBF-4FBB45B44143}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{FF066FEE-71A8-544B-9FBF-4AC94D59BAAF}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{1579776B-8220-A246-8143-06B2F6B62E84}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{9924B550-B8D4-A947-B99D-E1DADD5B3530}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{241CD680-78FA-B04B-8CDB-B5DB272E1DBC}"/>
+    <hyperlink ref="N9" r:id="rId7" xr:uid="{D3E4E9CF-D32B-F945-A8E6-E9378D9CA45B}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{47F3B889-30B0-AF4F-8081-426432D66C84}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{DA277728-F068-784D-B72D-D9C9C70BC2D1}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{9870BC31-A788-9441-AACD-103985C0FEAD}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{428E71EA-ED7E-1D41-AB9F-D1B2762E04B7}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{EC71574E-409D-984C-81F1-F0ABD6643445}"/>
+    <hyperlink ref="N15" r:id="rId13" xr:uid="{3DFA001A-B5E0-CC47-8231-D4F8B9F4D50D}"/>
+    <hyperlink ref="N16" r:id="rId14" xr:uid="{7F2B1B62-A90E-2E41-A668-4760D20F5763}"/>
+    <hyperlink ref="N17" r:id="rId15" xr:uid="{663788E9-3E25-8A40-851B-D113CAF80797}"/>
+    <hyperlink ref="N18" r:id="rId16" xr:uid="{EF17043E-6AFC-C246-9DC7-002C6056897A}"/>
+    <hyperlink ref="N19" r:id="rId17" xr:uid="{0DD8FBE2-D151-384E-AF79-D15562B67341}"/>
+    <hyperlink ref="N20" r:id="rId18" xr:uid="{226D5E8A-6996-224F-B7DF-167B918754C9}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
+    <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
+    <hyperlink ref="AW3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
+    <hyperlink ref="AW4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
+    <hyperlink ref="AW5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
+    <hyperlink ref="AW6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
+    <hyperlink ref="AW7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
